--- a/tables/extract_scores.xlsx
+++ b/tables/extract_scores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7848"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,9 @@
       <selection sqref="A1:Y109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>26</v>
       </c>
@@ -421,7 +421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>66</v>
       </c>
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="X2">
         <v>5</v>
@@ -498,7 +498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>19</v>
       </c>
@@ -575,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>66</v>
       </c>
@@ -652,7 +652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>29</v>
       </c>
@@ -720,7 +720,7 @@
         <v>15</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X5">
         <v>15</v>
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>55</v>
       </c>
@@ -797,7 +797,7 @@
         <v>40</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X6">
         <v>30</v>
@@ -806,7 +806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>34</v>
       </c>
@@ -874,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>48</v>
       </c>
@@ -951,7 +951,7 @@
         <v>30</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X8">
         <v>30</v>
@@ -960,7 +960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>47</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X9">
         <v>10</v>
@@ -1037,7 +1037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>59</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>45</v>
       </c>
       <c r="W10">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="X10">
         <v>40</v>
@@ -1114,7 +1114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>21</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>51</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>35</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>53</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>40</v>
       </c>
       <c r="W13">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="X13">
         <v>5</v>
@@ -1345,7 +1345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>23</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>24</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>48</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>30</v>
       </c>
       <c r="W16">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X16">
         <v>20</v>
@@ -1576,7 +1576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>55</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X17">
         <v>5</v>
@@ -1653,7 +1653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>71</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>65</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>65</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>25</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>23</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>19</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>52</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>73</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>22</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>30</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>69</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="W29">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X29">
         <v>25</v>
@@ -2577,7 +2577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>23</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>48</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X31">
         <v>30</v>
@@ -2731,7 +2731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>20</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>22</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>70</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X34">
         <v>15</v>
@@ -2962,7 +2962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>47</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>30</v>
       </c>
       <c r="W35">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X35">
         <v>10</v>
@@ -3039,7 +3039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>26</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>28</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>62</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>45</v>
       </c>
       <c r="W38">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X38">
         <v>25</v>
@@ -3270,7 +3270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>72</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>40</v>
       </c>
       <c r="W39">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X39">
         <v>20</v>
@@ -3347,7 +3347,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>22</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>28</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>25</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>65</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>50</v>
       </c>
       <c r="W43">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X43">
         <v>30</v>
@@ -3655,7 +3655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>67</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>5</v>
       </c>
       <c r="W44">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="X44">
         <v>10</v>
@@ -3732,7 +3732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>30</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>67</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X46">
         <v>15</v>
@@ -3886,7 +3886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>35</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>24</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>20</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>20</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>21</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>43</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>23</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>22</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>20</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>22</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="X56">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>31</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>69</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>30</v>
       </c>
       <c r="W58">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X58">
         <v>15</v>
@@ -4810,7 +4810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>68</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>55</v>
       </c>
       <c r="W59">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X59">
         <v>5</v>
@@ -4887,7 +4887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>65</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X60">
         <v>30</v>
@@ -4964,7 +4964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>21</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>26</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>55</v>
       </c>
       <c r="W63">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X63">
         <v>45</v>
@@ -5195,7 +5195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>25</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>24</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>19</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>21</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="W69">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X69">
         <v>0</v>
@@ -5657,7 +5657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>67</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="W70">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X70">
         <v>0</v>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>42</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>25</v>
       </c>
       <c r="W71">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X71">
         <v>25</v>
@@ -5811,7 +5811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>52</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>35</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="X72">
         <v>35</v>
@@ -5888,7 +5888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>56</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>40</v>
       </c>
       <c r="W73">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X73">
         <v>30</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>32</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>51</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>35</v>
       </c>
       <c r="W75">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="X75">
         <v>15</v>
@@ -6119,7 +6119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>49</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>15</v>
       </c>
       <c r="W76">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X76">
         <v>10</v>
@@ -6196,7 +6196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>43</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>25</v>
       </c>
       <c r="W77">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X77">
         <v>20</v>
@@ -6273,7 +6273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>22</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>20</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="W79">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X79">
         <v>10</v>
@@ -6427,7 +6427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>45</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>30</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="X80">
         <v>0</v>
@@ -6504,7 +6504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>23</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>18</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>49</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>35</v>
       </c>
       <c r="W83">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X83">
         <v>25</v>
@@ -6735,7 +6735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>61</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>45</v>
       </c>
       <c r="W84">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X84">
         <v>5</v>
@@ -6812,7 +6812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>51</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>35</v>
       </c>
       <c r="W85">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X85">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>35</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>10</v>
       </c>
       <c r="W86">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X86">
         <v>5</v>
@@ -6966,7 +6966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>36</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>72</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>32</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>55</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>40</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="X90">
         <v>0</v>
@@ -7274,7 +7274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>75</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>15</v>
       </c>
       <c r="W91">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="X91">
         <v>50</v>
@@ -7351,7 +7351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>44</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>30</v>
       </c>
       <c r="W92">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X92">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>56</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>40</v>
       </c>
       <c r="W93">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X93">
         <v>15</v>
@@ -7505,7 +7505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>61</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>24</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>55</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>30</v>
       </c>
       <c r="W96">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X96">
         <v>25</v>
@@ -7736,7 +7736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>59</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>45</v>
       </c>
       <c r="W97">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X97">
         <v>25</v>
@@ -7813,7 +7813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>38</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>21</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>72</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>63</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>45</v>
       </c>
       <c r="W101">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X101">
         <v>0</v>
@@ -8121,7 +8121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>31</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>61</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>45</v>
       </c>
       <c r="W103">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X103">
         <v>30</v>
@@ -8275,7 +8275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>67</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>50</v>
       </c>
       <c r="W104">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X104">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>22</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>54</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>40</v>
       </c>
       <c r="W106">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X106">
         <v>0</v>
@@ -8506,7 +8506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>63</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>45</v>
       </c>
       <c r="W107">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="X107">
         <v>35</v>
@@ -8583,7 +8583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>24</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>53</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>35</v>
       </c>
       <c r="W109">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="X109">
         <v>0</v>
@@ -8737,7 +8737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>53</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>64</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>25</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>24</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>19</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>21</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>67</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>67</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>42</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>52</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>56</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>32</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>51</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>49</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>43</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>22</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>20</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>45</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>23</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>18</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>49</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>61</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>51</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>58</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>54</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>35</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>72</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>32</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>55</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>75</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>44</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>56</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>61</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>24</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>55</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>59</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>38</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>75</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>79</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>61</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>54</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>64</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>63</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>64</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>21</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>72</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>63</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>31</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>31</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>24</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>61</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>67</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>26</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>22</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>54</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>63</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>24</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>53</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>68</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>28</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>64</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>40</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>55</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>21</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>54</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>63</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>24</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>53</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>68</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>28</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>64</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>40</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>55</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>21</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>28</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>64</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>40</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>55</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>21</v>
       </c>

--- a/tables/extract_scores.xlsx
+++ b/tables/extract_scores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,9 @@
       <selection sqref="A1:Y109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>26</v>
       </c>
@@ -421,7 +421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>66</v>
       </c>
@@ -498,7 +498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>19</v>
       </c>
@@ -575,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>66</v>
       </c>
@@ -652,7 +652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>29</v>
       </c>
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>55</v>
       </c>
@@ -806,7 +806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>34</v>
       </c>
@@ -883,7 +883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>48</v>
       </c>
@@ -960,7 +960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>47</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>59</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>51</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>53</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>48</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>55</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>71</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>65</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>52</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>73</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>30</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>69</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>23</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>48</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>22</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>70</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>47</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>26</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>28</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>62</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>72</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>22</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>28</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>25</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>65</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>67</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>30</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>67</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>35</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>24</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>21</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>43</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>23</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>22</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>22</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>31</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>69</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>68</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>65</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>21</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>25</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>24</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>19</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>21</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>42</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>52</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>56</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>32</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>51</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>49</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>43</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>22</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>20</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>45</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>23</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>18</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>49</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>61</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>51</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>35</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>36</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>72</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>32</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>55</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>75</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>44</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>56</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>61</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>24</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>55</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>59</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>38</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>21</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>72</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>63</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>31</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>61</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>67</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>22</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>54</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>63</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>24</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>53</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>53</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>64</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>25</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>24</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>19</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>21</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>67</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>67</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>42</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>52</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>56</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>32</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>51</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>49</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>43</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>22</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>20</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>45</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>23</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>18</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>49</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>61</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>51</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>58</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>54</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>35</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>72</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>32</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>55</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>75</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>44</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>56</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>61</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>24</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>55</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>59</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>38</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>75</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>79</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>61</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>54</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>64</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>63</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>64</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>21</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>72</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>63</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>31</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>31</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>24</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>61</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>67</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>26</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>22</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>54</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>63</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>24</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>53</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>68</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>28</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>64</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>40</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>55</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>21</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>54</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>63</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>24</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>53</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>68</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>28</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>64</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>40</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>55</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>21</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>28</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>64</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>40</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>55</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>21</v>
       </c>

--- a/tables/extract_scores.xlsx
+++ b/tables/extract_scores.xlsx
@@ -339,59 +339,59 @@
   <dimension ref="A1:Y188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y109"/>
+      <selection sqref="A1:Y108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1">
         <v>5</v>
       </c>
       <c r="F1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J1">
         <v>5</v>
       </c>
       <c r="K1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q1">
         <v>0</v>
@@ -403,42 +403,42 @@
         <v>5</v>
       </c>
       <c r="T1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="U1">
         <v>5</v>
       </c>
       <c r="V1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X1">
         <v>5</v>
       </c>
       <c r="Y1">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -447,28 +447,28 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="K2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2">
         <v>5</v>
       </c>
       <c r="N2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -477,45 +477,45 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>5</v>
       </c>
       <c r="V2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="W2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -524,46 +524,46 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -572,27 +572,27 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -601,75 +601,75 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y4">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>10</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -702,51 +702,51 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V5">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="W5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="X5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y5">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -755,105 +755,105 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>10</v>
       </c>
       <c r="U6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W6">
         <v>45</v>
       </c>
       <c r="X6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>25</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -865,42 +865,42 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="V7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="W7">
         <v>45</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y7">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M8">
         <v>30</v>
@@ -927,7 +927,7 @@
         <v>30</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -948,13 +948,13 @@
         <v>30</v>
       </c>
       <c r="V8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>45</v>
       </c>
       <c r="X8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Y8">
         <v>30</v>
@@ -962,13 +962,13 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -977,149 +977,149 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W9">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="X9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Y9">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>5</v>
       </c>
       <c r="T10">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="U10">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="W10">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1131,31 +1131,31 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K11">
         <v>5</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1164,51 +1164,51 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="U11">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="V11">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>25</v>
@@ -1217,31 +1217,31 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N12">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1250,27 +1250,27 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U12">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W12">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1288,37 +1288,37 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O13">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1327,27 +1327,27 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V13">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="W13">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <v>5</v>
       </c>
       <c r="Y13">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1374,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1395,39 +1395,39 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1436,226 +1436,226 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="U15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J16">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="X16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y16">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W17">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>5</v>
       </c>
       <c r="Y17">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>10</v>
       </c>
       <c r="N18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1724,21 +1724,21 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B19">
         <v>20</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1750,72 +1750,72 @@
         <v>5</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V19">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G20">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>50</v>
@@ -1845,16 +1845,16 @@
         <v>50</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N20">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1863,16 +1863,16 @@
         <v>10</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U20">
         <v>10</v>
       </c>
       <c r="V20">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="W20">
         <v>35</v>
@@ -1881,27 +1881,27 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1910,60 +1910,60 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N21">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="W21">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1990,16 +1990,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y22">
         <v>5</v>
@@ -2040,19 +2040,19 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2064,22 +2064,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N23">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -2097,27 +2097,27 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V23">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y23">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B24">
         <v>25</v>
@@ -2126,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2141,22 +2141,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N24">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -2168,33 +2168,33 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -2203,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N25">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -2266,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2304,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M26">
         <v>10</v>
       </c>
       <c r="N26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -2322,19 +2322,19 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V26">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -2343,21 +2343,21 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2375,19 +2375,19 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N27">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2399,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U27">
         <v>25</v>
       </c>
       <c r="V27">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -2420,60 +2420,60 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N28">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -2482,78 +2482,78 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="V28">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y28">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K29">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="L29">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2562,39 +2562,39 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="W29">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>10</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2645,33 +2645,33 @@
         <v>5</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y30">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2680,22 +2680,22 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K31">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2704,13 +2704,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -2722,18 +2722,18 @@
         <v>5</v>
       </c>
       <c r="W31">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -2745,7 +2745,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M32">
         <v>5</v>
@@ -2787,16 +2787,16 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -2810,22 +2810,22 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2834,22 +2834,22 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L33">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -2861,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="T33">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -2876,33 +2876,33 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y33">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2911,37 +2911,37 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="J34">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K34">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S34">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="T34">
         <v>30</v>
@@ -2950,36 +2950,36 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W34">
         <v>35</v>
       </c>
       <c r="X34">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y34">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>20</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2988,72 +2988,72 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N35">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V35">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="W35">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y35">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -3068,10 +3068,10 @@
         <v>5</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L36">
         <v>10</v>
@@ -3080,31 +3080,31 @@
         <v>10</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -3118,90 +3118,90 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B37">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J37">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P37">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="T37">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="U37">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X37">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Y37">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3210,37 +3210,37 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J38">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O38">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3249,69 +3249,69 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="T38">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U38">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="V38">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W38">
         <v>35</v>
       </c>
       <c r="X38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y38">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K39">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N39">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -3326,33 +3326,33 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="W39">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>10</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -3373,19 +3373,19 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -3418,15 +3418,15 @@
         <v>0</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y40">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B41">
         <v>15</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3450,16 +3450,16 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>10</v>
       </c>
       <c r="K41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M41">
         <v>10</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W41">
         <v>0</v>
@@ -3498,15 +3498,15 @@
         <v>5</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3521,34 +3521,34 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J42">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L42">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
       <c r="P42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3560,36 +3560,36 @@
         <v>10</v>
       </c>
       <c r="T42">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U42">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V42">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X42">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="Y42">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B43">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3598,66 +3598,66 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I43">
         <v>45</v>
       </c>
       <c r="J43">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K43">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T43">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="U43">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V43">
+        <v>5</v>
+      </c>
+      <c r="W43">
+        <v>55</v>
+      </c>
+      <c r="X43">
+        <v>10</v>
+      </c>
+      <c r="Y43">
         <v>50</v>
-      </c>
-      <c r="W43">
-        <v>35</v>
-      </c>
-      <c r="X43">
-        <v>30</v>
-      </c>
-      <c r="Y43">
-        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>20</v>
@@ -3666,81 +3666,81 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H44">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K44">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M44">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="V44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="X44">
         <v>10</v>
       </c>
       <c r="Y44">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3749,31 +3749,31 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K45">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -3788,107 +3788,107 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U45">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y45">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B46">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K46">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R46">
         <v>0</v>
       </c>
       <c r="S46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U46">
         <v>15</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W46">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Y46">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>20</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -3915,16 +3915,16 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3933,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -3945,30 +3945,30 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U47">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V47">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -4119,7 +4119,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>15</v>
@@ -4128,10 +4128,10 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M50">
         <v>5</v>
@@ -4173,22 +4173,22 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y50">
         <v>5</v>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B51">
         <v>15</v>
@@ -4208,7 +4208,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4223,16 +4223,16 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L51">
         <v>5</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -4247,13 +4247,13 @@
         <v>0</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S51">
         <v>5</v>
       </c>
       <c r="T51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -4262,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>5</v>
@@ -4273,10 +4273,10 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -4285,10 +4285,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K52">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>5</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -4324,22 +4324,22 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W52">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53">
         <v>20</v>
@@ -4359,13 +4359,13 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4374,13 +4374,13 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>5</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L53">
         <v>5</v>
@@ -4410,16 +4410,16 @@
         <v>5</v>
       </c>
       <c r="U53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y53">
         <v>5</v>
@@ -4427,10 +4427,10 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B54">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -4457,10 +4457,10 @@
         <v>5</v>
       </c>
       <c r="K54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>5</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -4484,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -4504,10 +4504,10 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -4558,22 +4558,22 @@
         <v>0</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
       <c r="U55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V55">
         <v>0</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>5</v>
@@ -4581,19 +4581,19 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B56">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4605,19 +4605,19 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4629,51 +4629,51 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W56">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y56">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B57">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -4682,22 +4682,22 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J57">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K57">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L57">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M57">
         <v>20</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -4709,39 +4709,39 @@
         <v>0</v>
       </c>
       <c r="R57">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V57">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X57">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Y57">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -4759,75 +4759,75 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J58">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K58">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L58">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N58">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U58">
         <v>15</v>
       </c>
       <c r="V58">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="W58">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="X58">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Y58">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F59">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -4836,72 +4836,72 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K59">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L59">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M59">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N59">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="O59">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="P59">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="R59">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="V59">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="X59">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="Y59">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>20</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4916,31 +4916,31 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K60">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="M60">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -4952,30 +4952,30 @@
         <v>5</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W60">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X60">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y60">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4990,19 +4990,19 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J61">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -5023,42 +5023,42 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U61">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V61">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5067,55 +5067,55 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J62">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L62">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="M62">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="T62">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="U62">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V62">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="W62">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Y62">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -5123,123 +5123,123 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J63">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K63">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L63">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="M63">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N63">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="U63">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V63">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="W63">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="X63">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="Y63">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K64">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T64">
         <v>10</v>
@@ -5260,21 +5260,21 @@
         <v>10</v>
       </c>
       <c r="V64">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y64">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65">
         <v>20</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5301,22 +5301,22 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M65">
         <v>10</v>
       </c>
       <c r="N65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -5331,10 +5331,10 @@
         <v>5</v>
       </c>
       <c r="T65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="X65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>10</v>
@@ -5351,10 +5351,10 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B66">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -5378,19 +5378,19 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S66">
         <v>5</v>
@@ -5423,18 +5423,18 @@
         <v>0</v>
       </c>
       <c r="Y66">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B67">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D67">
         <v>5</v>
@@ -5455,10 +5455,10 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L67">
         <v>5</v>
@@ -5467,7 +5467,7 @@
         <v>5</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -5479,16 +5479,16 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T67">
         <v>5</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -5505,16 +5505,16 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>20</v>
       </c>
       <c r="C68">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -5523,28 +5523,28 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K68">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="L68">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="M68">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N68">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -5553,31 +5553,31 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
       <c r="T68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U68">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V68">
         <v>0</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="X68">
         <v>0</v>
       </c>
       <c r="Y68">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
@@ -5585,10 +5585,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -5597,10 +5597,10 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G69">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -5609,16 +5609,16 @@
         <v>50</v>
       </c>
       <c r="J69">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K69">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L69">
         <v>50</v>
       </c>
       <c r="M69">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N69">
         <v>30</v>
@@ -5627,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q69">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R69">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="U69">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -5654,137 +5654,137 @@
         <v>0</v>
       </c>
       <c r="Y69">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J70">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K70">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L70">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N70">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P70">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W70">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="X70">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B71">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D71">
         <v>5</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G71">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I71">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J71">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K71">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O71">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="P71">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -5793,119 +5793,119 @@
         <v>0</v>
       </c>
       <c r="T71">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="U71">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="V71">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="W71">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="X71">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y71">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B72">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G72">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J72">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K72">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L72">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N72">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S72">
         <v>0</v>
       </c>
       <c r="T72">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U72">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V72">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W72">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X72">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y72">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -5914,19 +5914,19 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K73">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M73">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -5938,42 +5938,42 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
       <c r="T73">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="U73">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="V73">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="W73">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X73">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Y73">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B74">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C74">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="D74">
         <v>10</v>
@@ -5982,87 +5982,87 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J74">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K74">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L74">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O74">
         <v>0</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="S74">
         <v>0</v>
       </c>
       <c r="T74">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V74">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="X74">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y74">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B75">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C75">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G75">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -6071,16 +6071,16 @@
         <v>35</v>
       </c>
       <c r="J75">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K75">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L75">
         <v>35</v>
       </c>
       <c r="M75">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N75">
         <v>35</v>
@@ -6089,13 +6089,13 @@
         <v>0</v>
       </c>
       <c r="P75">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q75">
         <v>0</v>
       </c>
       <c r="R75">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -6104,16 +6104,16 @@
         <v>0</v>
       </c>
       <c r="U75">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="V75">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="W75">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="X75">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y75">
         <v>35</v>
@@ -6121,22 +6121,22 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C76">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E76">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6145,22 +6145,22 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J76">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M76">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N76">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="R76">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -6181,39 +6181,39 @@
         <v>0</v>
       </c>
       <c r="U76">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="V76">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W76">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="X76">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Y76">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B77">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -6222,22 +6222,22 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L77">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -6258,39 +6258,39 @@
         <v>0</v>
       </c>
       <c r="U77">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="V77">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="W77">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X77">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y77">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B78">
         <v>20</v>
       </c>
       <c r="C78">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -6299,176 +6299,176 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J78">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K78">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <v>0</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S78">
         <v>0</v>
       </c>
       <c r="T78">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U78">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W78">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X78">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y78">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J79">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K79">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L79">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>25</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O79">
         <v>0</v>
       </c>
       <c r="P79">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S79">
         <v>0</v>
       </c>
       <c r="T79">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U79">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="V79">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W79">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="X79">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y79">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B80">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K80">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M80">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N80">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -6480,36 +6480,36 @@
         <v>0</v>
       </c>
       <c r="R80">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T80">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U80">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="V80">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="W80">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X80">
         <v>0</v>
       </c>
       <c r="Y80">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B81">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -6536,7 +6536,7 @@
         <v>5</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L81">
         <v>5</v>
@@ -6545,7 +6545,7 @@
         <v>5</v>
       </c>
       <c r="N81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -6563,45 +6563,45 @@
         <v>5</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U81">
         <v>5</v>
       </c>
       <c r="V81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W81">
         <v>0</v>
       </c>
       <c r="X81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y81">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -6610,25 +6610,25 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K82">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L82">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O82">
         <v>0</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -6637,75 +6637,75 @@
         <v>0</v>
       </c>
       <c r="S82">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="T82">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="U82">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="V82">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="W82">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="X82">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Y82">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B83">
         <v>20</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J83">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K83">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L83">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M83">
         <v>30</v>
       </c>
       <c r="N83">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="P83">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -6714,122 +6714,122 @@
         <v>0</v>
       </c>
       <c r="S83">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="T83">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U83">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V83">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="W83">
         <v>45</v>
       </c>
       <c r="X83">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Y83">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G84">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J84">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L84">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M84">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O84">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P84">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="T84">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="U84">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V84">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="W84">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="X84">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y84">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B85">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C85">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F85">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -6838,72 +6838,72 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K85">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M85">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N85">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O85">
         <v>0</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S85">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="T85">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U85">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="V85">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="W85">
         <v>35</v>
       </c>
       <c r="X85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y85">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B86">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6915,52 +6915,52 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J86">
         <v>20</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L86">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O86">
         <v>0</v>
       </c>
       <c r="P86">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R86">
         <v>0</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T86">
         <v>0</v>
       </c>
       <c r="U86">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W86">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X86">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y86">
         <v>20</v>
@@ -6968,22 +6968,22 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B87">
         <v>25</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D87">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E87">
         <v>5</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -6992,75 +6992,75 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J87">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K87">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M87">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q87">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S87">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="T87">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U87">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="V87">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="W87">
         <v>0</v>
       </c>
       <c r="X87">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y87">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B88">
         <v>25</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -7069,69 +7069,69 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K88">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="L88">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M88">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O88">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P88">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S88">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="T88">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="U88">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="V88">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W88">
         <v>0</v>
       </c>
       <c r="X88">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y88">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B89">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7140,158 +7140,158 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J89">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K89">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="L89">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M89">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N89">
         <v>10</v>
       </c>
       <c r="O89">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="P89">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q89">
         <v>0</v>
       </c>
       <c r="R89">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S89">
         <v>0</v>
       </c>
       <c r="T89">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="U89">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="V89">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="W89">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X89">
         <v>0</v>
       </c>
       <c r="Y89">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
+        <v>75</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>45</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>15</v>
+      </c>
+      <c r="J90">
+        <v>60</v>
+      </c>
+      <c r="K90">
+        <v>40</v>
+      </c>
+      <c r="L90">
+        <v>15</v>
+      </c>
+      <c r="M90">
+        <v>10</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>10</v>
+      </c>
+      <c r="P90">
+        <v>15</v>
+      </c>
+      <c r="Q90">
+        <v>10</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>45</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>10</v>
+      </c>
+      <c r="V90">
+        <v>15</v>
+      </c>
+      <c r="W90">
         <v>55</v>
       </c>
-      <c r="B90">
-        <v>20</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>10</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>40</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>40</v>
-      </c>
-      <c r="J90">
-        <v>40</v>
-      </c>
-      <c r="K90">
-        <v>30</v>
-      </c>
-      <c r="L90">
-        <v>40</v>
-      </c>
-      <c r="M90">
-        <v>30</v>
-      </c>
-      <c r="N90">
-        <v>10</v>
-      </c>
-      <c r="O90">
-        <v>40</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>10</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-      <c r="T90">
-        <v>40</v>
-      </c>
-      <c r="U90">
-        <v>40</v>
-      </c>
-      <c r="V90">
-        <v>40</v>
-      </c>
-      <c r="W90">
-        <v>25</v>
-      </c>
       <c r="X90">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y90">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>10</v>
       </c>
       <c r="E91">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -7300,75 +7300,75 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J91">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K91">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L91">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M91">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
       <c r="O91">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P91">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q91">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R91">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S91">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="T91">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U91">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V91">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="W91">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="X91">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y91">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B92">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F92">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -7377,16 +7377,16 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J92">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K92">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M92">
         <v>20</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="O92">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P92">
         <v>30</v>
@@ -7404,33 +7404,33 @@
         <v>5</v>
       </c>
       <c r="R92">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S92">
         <v>5</v>
       </c>
       <c r="T92">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U92">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V92">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W92">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="X92">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y92">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B93">
         <v>25</v>
@@ -7439,114 +7439,114 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E93">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I93">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J93">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L93">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M93">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O93">
         <v>0</v>
       </c>
       <c r="P93">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R93">
         <v>0</v>
       </c>
       <c r="S93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T93">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="U93">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="V93">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W93">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X93">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y93">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B94">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="M94">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N94">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -7564,13 +7564,13 @@
         <v>0</v>
       </c>
       <c r="T94">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="U94">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="V94">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="W94">
         <v>0</v>
@@ -7579,60 +7579,60 @@
         <v>0</v>
       </c>
       <c r="Y94">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B95">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M95">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O95">
         <v>0</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -7641,33 +7641,33 @@
         <v>0</v>
       </c>
       <c r="T95">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U95">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V95">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="W95">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X95">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y95">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B96">
         <v>25</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -7676,25 +7676,25 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G96">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J96">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M96">
         <v>30</v>
@@ -7706,10 +7706,10 @@
         <v>0</v>
       </c>
       <c r="P96">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -7718,13 +7718,13 @@
         <v>0</v>
       </c>
       <c r="T96">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="U96">
         <v>20</v>
       </c>
       <c r="V96">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="W96">
         <v>35</v>
@@ -7733,54 +7733,54 @@
         <v>25</v>
       </c>
       <c r="Y96">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B97">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I97">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J97">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K97">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L97">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M97">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -7789,96 +7789,96 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="U97">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V97">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="W97">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X97">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y97">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B98">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J98">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K98">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M98">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N98">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O98">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R98">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T98">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="U98">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V98">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W98">
         <v>0</v>
@@ -7887,18 +7887,18 @@
         <v>0</v>
       </c>
       <c r="Y98">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B99">
         <v>20</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -7907,37 +7907,37 @@
         <v>5</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="J99">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N99">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -7946,122 +7946,122 @@
         <v>0</v>
       </c>
       <c r="S99">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T99">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="U99">
         <v>0</v>
       </c>
       <c r="V99">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="W99">
         <v>0</v>
       </c>
       <c r="X99">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y99">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B100">
         <v>20</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>5</v>
       </c>
       <c r="E100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G100">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J100">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
       <c r="M100">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N100">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O100">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P100">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q100">
         <v>5</v>
       </c>
       <c r="R100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S100">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="T100">
         <v>20</v>
       </c>
       <c r="U100">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V100">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="W100">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="X100">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y100">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B101">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -8070,137 +8070,137 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K101">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M101">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N101">
         <v>0</v>
       </c>
       <c r="O101">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P101">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R101">
         <v>5</v>
       </c>
       <c r="S101">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T101">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U101">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V101">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="W101">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="X101">
         <v>0</v>
       </c>
       <c r="Y101">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B102">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J102">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K102">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M102">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O102">
         <v>0</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q102">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S102">
         <v>10</v>
       </c>
       <c r="T102">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U102">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V102">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="W102">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X102">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y102">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B103">
         <v>20</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G103">
         <v>30</v>
@@ -8224,60 +8224,60 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J103">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M103">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N103">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P103">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R103">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S103">
         <v>10</v>
       </c>
       <c r="T103">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="U103">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="V103">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W103">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="X103">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y103">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B104">
         <v>20</v>
@@ -8286,81 +8286,81 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K104">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M104">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O104">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S104">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T104">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U104">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V104">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="W104">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="X104">
         <v>0</v>
       </c>
       <c r="Y104">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B105">
         <v>20</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D105">
         <v>5</v>
@@ -8369,31 +8369,31 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J105">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L105">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="M105">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O105">
         <v>0</v>
@@ -8405,125 +8405,125 @@
         <v>0</v>
       </c>
       <c r="R105">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S105">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V105">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="W105">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="X105">
         <v>0</v>
       </c>
       <c r="Y105">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C106">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F106">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G106">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J106">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K106">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L106">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M106">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N106">
         <v>0</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P106">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R106">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S106">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U106">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V106">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W106">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="X106">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y106">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B107">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E107">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F107">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -8532,60 +8532,60 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K107">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M107">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O107">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="P107">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R107">
         <v>5</v>
       </c>
       <c r="S107">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U107">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="V107">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="W107">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X107">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Y107">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B108">
         <v>20</v>
@@ -8594,37 +8594,37 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J108">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
       <c r="M108">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N108">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O108">
         <v>0</v>
@@ -8633,31 +8633,31 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T108">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V108">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="W108">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="X108">
         <v>0</v>
       </c>
       <c r="Y108">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
